--- a/biology/Zoologie/Eocryphoeca/Eocryphoeca.xlsx
+++ b/biology/Zoologie/Eocryphoeca/Eocryphoeca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eocryphoeca est un genre fossile d'araignées aranéomorphes de la famille des Hahniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la Baltique en Russie, en Pologne et au Danemark et dans de l'ambre de Bitterfeld en Allemagne en Saxe-Anhalt[1]. Elles datent du Paléogène[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la Baltique en Russie, en Pologne et au Danemark et dans de l'ambre de Bitterfeld en Allemagne en Saxe-Anhalt. Elles datent du Paléogène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog (version 23.5, 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog (version 23.5, 2023) :
 † Eocryphoeca bitterfeldensis Wunderlich, 2004
 † Eocryphoeca duplex Wunderlich, 2022
 † Eocryphoeca electrina Wunderlich, 2004
@@ -581,9 +597,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Petrunkevitch en 1946 dans les Agelenidae. Il est placé dans les Hahniidae par Wunderlich en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Petrunkevitch en 1946 dans les Agelenidae. Il est placé dans les Hahniidae par Wunderlich en 2022.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Petrunkevitch, 1946 : « Fossil spiders in the collection of the American Museum of Natural History. » American Museum Novitates, no 1328, p. 1–36 (texte intégral).</t>
         </is>
